--- a/PLP_201484.xlsx
+++ b/PLP_201484.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serda\Desktop\mproj\mproj_tool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8D0DDB-B06D-4D65-8712-7AD3BA6D6186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="28215" windowHeight="11445"/>
+    <workbookView xWindow="-9630" yWindow="4665" windowWidth="31815" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control-Plan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -453,7 +472,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -666,47 +685,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -716,6 +735,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -738,7 +760,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -765,9 +793,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -805,7 +833,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -877,7 +905,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1050,11 +1078,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="P11" sqref="P11:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,344 +1107,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="5"/>
-      <c r="Q1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="23"/>
       <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="7" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="7" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="9"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="13"/>
     </row>
     <row r="3" spans="1:19" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="12"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="15"/>
     </row>
     <row r="4" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="7" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="9"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="13"/>
     </row>
     <row r="5" spans="1:19" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="12"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="15"/>
     </row>
     <row r="6" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="7" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="9"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="13"/>
     </row>
     <row r="7" spans="1:19" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="7" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="7" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="9"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="13"/>
     </row>
     <row r="9" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="17" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="20" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17" t="s">
+      <c r="J11" s="22"/>
+      <c r="K11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="17" t="s">
+      <c r="M11" s="13"/>
+      <c r="N11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="O11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="22" t="s">
+      <c r="P11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="21" t="s">
+      <c r="Q11" s="8"/>
+      <c r="R11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="17" t="s">
+      <c r="S11" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="22" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="19"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="16">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="17" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="11" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="2">
@@ -1432,21 +1460,21 @@
       <c r="K13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="4">
         <v>37.4</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="1">
         <v>37.450000000000003</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="22" t="s">
+      <c r="P13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="25" t="s">
+      <c r="Q13" s="8"/>
+      <c r="R13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S13" s="1" t="s">
@@ -1454,12 +1482,12 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="2">
         <v>20</v>
       </c>
@@ -1473,21 +1501,21 @@
       <c r="K14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="4">
         <v>5.7</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="1">
         <v>5.9</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P14" s="22" t="s">
+      <c r="P14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="25" t="s">
+      <c r="Q14" s="8"/>
+      <c r="R14" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -1495,12 +1523,12 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="18"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="2">
         <v>30</v>
       </c>
@@ -1514,21 +1542,21 @@
       <c r="K15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="4">
         <v>8.5</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="P15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="25" t="s">
+      <c r="Q15" s="8"/>
+      <c r="R15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -1536,12 +1564,12 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="18"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="2">
         <v>40</v>
       </c>
@@ -1555,21 +1583,21 @@
       <c r="K16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="4">
         <v>48.4</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="1">
         <v>48.6</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="O16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P16" s="22" t="s">
+      <c r="P16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="25" t="s">
+      <c r="Q16" s="8"/>
+      <c r="R16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S16" s="1" t="s">
@@ -1577,12 +1605,12 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="18"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="2">
         <v>50</v>
       </c>
@@ -1596,21 +1624,21 @@
       <c r="K17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="4">
         <v>43.475000000000001</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="1">
         <v>43.524999999999999</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="22" t="s">
+      <c r="P17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="25" t="s">
+      <c r="Q17" s="8"/>
+      <c r="R17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S17" s="1" t="s">
@@ -1618,12 +1646,12 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="18"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="2">
         <v>55</v>
       </c>
@@ -1637,21 +1665,21 @@
       <c r="K18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="4">
         <v>43.475000000000001</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="1">
         <v>43.524999999999999</v>
       </c>
-      <c r="O18" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" s="22" t="s">
+      <c r="O18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="25" t="s">
+      <c r="Q18" s="8"/>
+      <c r="R18" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S18" s="1" t="s">
@@ -1659,12 +1687,12 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="2">
         <v>56</v>
       </c>
@@ -1678,21 +1706,21 @@
       <c r="K19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="4">
         <v>43.475000000000001</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="1">
         <v>43.524999999999999</v>
       </c>
-      <c r="O19" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="22" t="s">
+      <c r="O19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="25" t="s">
+      <c r="Q19" s="8"/>
+      <c r="R19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S19" s="1" t="s">
@@ -1700,12 +1728,12 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="2">
         <v>60</v>
       </c>
@@ -1719,21 +1747,21 @@
       <c r="K20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="4">
         <v>32.9</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="1">
         <v>33.1</v>
       </c>
-      <c r="O20" s="25" t="s">
+      <c r="O20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P20" s="22" t="s">
+      <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="25" t="s">
+      <c r="Q20" s="8"/>
+      <c r="R20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S20" s="1" t="s">
@@ -1741,12 +1769,12 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="2">
         <v>70</v>
       </c>
@@ -1760,21 +1788,21 @@
       <c r="K21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="4">
         <v>34.799999999999997</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="1">
         <v>35</v>
       </c>
-      <c r="O21" s="25" t="s">
+      <c r="O21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P21" s="22" t="s">
+      <c r="P21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="25" t="s">
+      <c r="Q21" s="8"/>
+      <c r="R21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S21" s="1" t="s">
@@ -1782,12 +1810,12 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="2">
         <v>90</v>
       </c>
@@ -1801,21 +1829,21 @@
       <c r="K22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="4">
         <v>0</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="1">
         <v>0.05</v>
       </c>
-      <c r="O22" s="25" t="s">
+      <c r="O22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="22" t="s">
+      <c r="P22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="25" t="s">
+      <c r="Q22" s="8"/>
+      <c r="R22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S22" s="1" t="s">
@@ -1823,12 +1851,12 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="2">
         <v>100</v>
       </c>
@@ -1842,21 +1870,21 @@
       <c r="K23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="4">
         <v>0</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="1">
         <v>16</v>
       </c>
-      <c r="O23" s="25" t="s">
+      <c r="O23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P23" s="22" t="s">
+      <c r="P23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="25" t="s">
+      <c r="Q23" s="8"/>
+      <c r="R23" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S23" s="1" t="s">
@@ -1864,12 +1892,12 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="2">
         <v>110</v>
       </c>
@@ -1883,21 +1911,21 @@
       <c r="K24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="4">
         <v>0</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="1">
         <v>30</v>
       </c>
-      <c r="O24" s="25" t="s">
+      <c r="O24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P24" s="22" t="s">
+      <c r="P24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="25" t="s">
+      <c r="Q24" s="8"/>
+      <c r="R24" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S24" s="1" t="s">
@@ -1905,12 +1933,12 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="2">
         <v>140</v>
       </c>
@@ -1924,21 +1952,21 @@
       <c r="K25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="4">
         <v>5</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="1">
         <v>5.5</v>
       </c>
-      <c r="O25" s="25" t="s">
+      <c r="O25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P25" s="22" t="s">
+      <c r="P25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="25" t="s">
+      <c r="Q25" s="8"/>
+      <c r="R25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S25" s="1" t="s">
@@ -1946,12 +1974,12 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="2">
         <v>150</v>
       </c>
@@ -1965,21 +1993,21 @@
       <c r="K26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="4">
         <v>35.799999999999997</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="1">
         <v>35.950000000000003</v>
       </c>
-      <c r="O26" s="25" t="s">
+      <c r="O26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P26" s="22" t="s">
+      <c r="P26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="25" t="s">
+      <c r="Q26" s="8"/>
+      <c r="R26" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S26" s="1" t="s">
@@ -1987,12 +2015,12 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="2">
         <v>160</v>
       </c>
@@ -2006,21 +2034,21 @@
       <c r="K27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="4">
         <v>0</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="1">
         <v>10</v>
       </c>
-      <c r="O27" s="25" t="s">
+      <c r="O27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P27" s="22" t="s">
+      <c r="P27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="25" t="s">
+      <c r="Q27" s="8"/>
+      <c r="R27" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S27" s="1" t="s">
@@ -2028,12 +2056,12 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="2">
         <v>170</v>
       </c>
@@ -2047,21 +2075,21 @@
       <c r="K28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="4">
         <v>36.799999999999997</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="1">
         <v>36.950000000000003</v>
       </c>
-      <c r="O28" s="25" t="s">
+      <c r="O28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P28" s="22" t="s">
+      <c r="P28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="25" t="s">
+      <c r="Q28" s="8"/>
+      <c r="R28" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S28" s="1" t="s">
@@ -2069,12 +2097,12 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="2">
         <v>180</v>
       </c>
@@ -2088,21 +2116,21 @@
       <c r="K29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="4">
         <v>2.6</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="1">
         <v>2.7</v>
       </c>
-      <c r="O29" s="25" t="s">
+      <c r="O29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P29" s="22" t="s">
+      <c r="P29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="25" t="s">
+      <c r="Q29" s="8"/>
+      <c r="R29" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S29" s="1" t="s">
@@ -2110,12 +2138,12 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="2">
         <v>190</v>
       </c>
@@ -2129,21 +2157,21 @@
       <c r="K30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="4">
         <v>3</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="1">
         <v>3.1</v>
       </c>
-      <c r="O30" s="25" t="s">
+      <c r="O30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P30" s="22" t="s">
+      <c r="P30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="25" t="s">
+      <c r="Q30" s="8"/>
+      <c r="R30" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S30" s="1" t="s">
@@ -2151,12 +2179,12 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="2">
         <v>200</v>
       </c>
@@ -2170,21 +2198,21 @@
       <c r="K31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="4">
         <v>1</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O31" s="25" t="s">
+      <c r="O31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P31" s="22" t="s">
+      <c r="P31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="25" t="s">
+      <c r="Q31" s="8"/>
+      <c r="R31" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S31" s="1" t="s">
@@ -2192,12 +2220,12 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="2">
         <v>210</v>
       </c>
@@ -2211,21 +2239,21 @@
       <c r="K32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="4">
         <v>15.15</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="1">
         <v>15.25</v>
       </c>
-      <c r="O32" s="25" t="s">
+      <c r="O32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P32" s="22" t="s">
+      <c r="P32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="25" t="s">
+      <c r="Q32" s="8"/>
+      <c r="R32" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S32" s="1" t="s">
@@ -2233,12 +2261,12 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="2">
         <v>220</v>
       </c>
@@ -2252,21 +2280,21 @@
       <c r="K33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="4">
         <v>0.3</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="1">
         <v>0.7</v>
       </c>
-      <c r="O33" s="25" t="s">
+      <c r="O33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="P33" s="22" t="s">
+      <c r="P33" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="25" t="s">
+      <c r="Q33" s="8"/>
+      <c r="R33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S33" s="1" t="s">
@@ -2274,12 +2302,12 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="2">
         <v>230</v>
       </c>
@@ -2293,21 +2321,21 @@
       <c r="K34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="4">
         <v>0</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O34" s="25" t="s">
+      <c r="O34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P34" s="22" t="s">
+      <c r="P34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="25" t="s">
+      <c r="Q34" s="8"/>
+      <c r="R34" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S34" s="1" t="s">
@@ -2315,12 +2343,12 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="2">
         <v>240</v>
       </c>
@@ -2334,21 +2362,21 @@
       <c r="K35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="4">
         <v>0</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O35" s="25" t="s">
+      <c r="O35" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P35" s="22" t="s">
+      <c r="P35" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="25" t="s">
+      <c r="Q35" s="8"/>
+      <c r="R35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S35" s="1" t="s">
@@ -2356,12 +2384,12 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="2">
         <v>260</v>
       </c>
@@ -2375,21 +2403,21 @@
       <c r="K36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="4">
         <v>0</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="1">
         <v>0.05</v>
       </c>
-      <c r="O36" s="25" t="s">
+      <c r="O36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P36" s="22" t="s">
+      <c r="P36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="25" t="s">
+      <c r="Q36" s="8"/>
+      <c r="R36" s="3" t="s">
         <v>93</v>
       </c>
       <c r="S36" s="1" t="s">
@@ -2397,12 +2425,12 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="2">
         <v>270</v>
       </c>
@@ -2416,21 +2444,21 @@
       <c r="K37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="4">
         <v>0</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="1">
         <v>12.5</v>
       </c>
-      <c r="O37" s="25" t="s">
+      <c r="O37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P37" s="22" t="s">
+      <c r="P37" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="25" t="s">
+      <c r="Q37" s="8"/>
+      <c r="R37" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S37" s="1" t="s">
@@ -2438,12 +2466,12 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="2">
         <v>280</v>
       </c>
@@ -2457,21 +2485,21 @@
       <c r="K38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="4">
         <v>0</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="1">
         <v>25</v>
       </c>
-      <c r="O38" s="25" t="s">
+      <c r="O38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P38" s="22" t="s">
+      <c r="P38" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="25" t="s">
+      <c r="Q38" s="8"/>
+      <c r="R38" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S38" s="1" t="s">
@@ -2479,12 +2507,12 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="2">
         <v>290</v>
       </c>
@@ -2498,21 +2526,21 @@
       <c r="K39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="4">
         <v>8.9</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="1">
         <v>9</v>
       </c>
-      <c r="O39" s="25" t="s">
+      <c r="O39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P39" s="22" t="s">
+      <c r="P39" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="25" t="s">
+      <c r="Q39" s="8"/>
+      <c r="R39" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S39" s="1" t="s">
@@ -2520,12 +2548,12 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="2">
         <v>300</v>
       </c>
@@ -2539,21 +2567,21 @@
       <c r="K40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="4">
         <v>1</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="1">
         <v>1.2</v>
       </c>
-      <c r="O40" s="25" t="s">
+      <c r="O40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P40" s="22" t="s">
+      <c r="P40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="25" t="s">
+      <c r="Q40" s="8"/>
+      <c r="R40" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S40" s="1" t="s">
@@ -2561,12 +2589,12 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="2">
         <v>310</v>
       </c>
@@ -2580,21 +2608,21 @@
       <c r="K41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="4">
         <v>0</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="1">
         <v>0.2</v>
       </c>
-      <c r="O41" s="25" t="s">
+      <c r="O41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P41" s="22" t="s">
+      <c r="P41" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="25" t="s">
+      <c r="Q41" s="8"/>
+      <c r="R41" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S41" s="1" t="s">
@@ -2602,12 +2630,12 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="2">
         <v>320</v>
       </c>
@@ -2621,21 +2649,21 @@
       <c r="K42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="4">
         <v>37.4</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="1">
         <v>37.450000000000003</v>
       </c>
-      <c r="O42" s="25" t="s">
+      <c r="O42" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P42" s="22" t="s">
+      <c r="P42" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="25" t="s">
+      <c r="Q42" s="8"/>
+      <c r="R42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S42" s="1" t="s">
@@ -2643,12 +2671,12 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="18"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="22"/>
       <c r="G43" s="2">
         <v>321</v>
       </c>
@@ -2662,21 +2690,21 @@
       <c r="K43" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="4">
         <v>5.4</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="1">
         <v>5.6</v>
       </c>
-      <c r="O43" s="25" t="s">
+      <c r="O43" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="P43" s="22" t="s">
+      <c r="P43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="25" t="s">
+      <c r="Q43" s="8"/>
+      <c r="R43" s="3" t="s">
         <v>93</v>
       </c>
       <c r="S43" s="1" t="s">
@@ -2684,12 +2712,12 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="18"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="22"/>
       <c r="G44" s="2">
         <v>322</v>
       </c>
@@ -2703,21 +2731,21 @@
       <c r="K44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="4">
         <v>43.475000000000001</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="1">
         <v>43.524999999999999</v>
       </c>
-      <c r="O44" s="25" t="s">
+      <c r="O44" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="P44" s="22" t="s">
+      <c r="P44" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="25" t="s">
+      <c r="Q44" s="8"/>
+      <c r="R44" s="3" t="s">
         <v>93</v>
       </c>
       <c r="S44" s="1" t="s">
@@ -2725,12 +2753,12 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="18"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="22"/>
       <c r="G45" s="2">
         <v>323</v>
       </c>
@@ -2744,21 +2772,21 @@
       <c r="K45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="4">
         <v>48.4</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="1">
         <v>48.6</v>
       </c>
-      <c r="O45" s="25" t="s">
+      <c r="O45" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="P45" s="22" t="s">
+      <c r="P45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="25" t="s">
+      <c r="Q45" s="8"/>
+      <c r="R45" s="3" t="s">
         <v>93</v>
       </c>
       <c r="S45" s="1" t="s">
@@ -2766,12 +2794,12 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="18"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="22"/>
       <c r="G46" s="2">
         <v>324</v>
       </c>
@@ -2785,21 +2813,21 @@
       <c r="K46" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="4">
         <v>33.35</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="1">
         <v>33.4</v>
       </c>
-      <c r="O46" s="25" t="s">
+      <c r="O46" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="P46" s="22" t="s">
+      <c r="P46" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="25" t="s">
+      <c r="Q46" s="8"/>
+      <c r="R46" s="3" t="s">
         <v>93</v>
       </c>
       <c r="S46" s="1" t="s">
@@ -2807,12 +2835,12 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="18"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="22"/>
       <c r="G47" s="2">
         <v>325</v>
       </c>
@@ -2826,21 +2854,21 @@
       <c r="K47" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="4">
         <v>33.6</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="1">
         <v>33.616</v>
       </c>
-      <c r="O47" s="25" t="s">
+      <c r="O47" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="P47" s="22" t="s">
+      <c r="P47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="25" t="s">
+      <c r="Q47" s="8"/>
+      <c r="R47" s="3" t="s">
         <v>93</v>
       </c>
       <c r="S47" s="1" t="s">
@@ -2848,12 +2876,12 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="18"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="22"/>
       <c r="G48" s="2">
         <v>311</v>
       </c>
@@ -2867,21 +2895,21 @@
       <c r="K48" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="4">
         <v>33.463999999999999</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="1">
         <v>33.479999999999997</v>
       </c>
-      <c r="O48" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P48" s="22" t="s">
+      <c r="O48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="25" t="s">
+      <c r="Q48" s="8"/>
+      <c r="R48" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S48" s="1" t="s">
@@ -2889,12 +2917,12 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="18"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="22"/>
       <c r="G49" s="2">
         <v>312</v>
       </c>
@@ -2908,21 +2936,21 @@
       <c r="K49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="L49" s="4" t="s">
         <v>0</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O49" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P49" s="22" t="s">
+      <c r="O49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="25" t="s">
+      <c r="Q49" s="8"/>
+      <c r="R49" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S49" s="1" t="s">
@@ -2930,12 +2958,12 @@
       </c>
     </row>
     <row r="50" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="18"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="22"/>
       <c r="G50" s="2">
         <v>318</v>
       </c>
@@ -2949,21 +2977,21 @@
       <c r="K50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="L50" s="4" t="s">
         <v>0</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O50" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P50" s="22" t="s">
+      <c r="O50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="25" t="s">
+      <c r="Q50" s="8"/>
+      <c r="R50" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S50" s="1" t="s">
@@ -2971,12 +2999,12 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="18"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="22"/>
       <c r="G51" s="2">
         <v>319</v>
       </c>
@@ -2990,21 +3018,21 @@
       <c r="K51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="4">
         <v>33.603999999999999</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="1">
         <v>33.616</v>
       </c>
-      <c r="O51" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P51" s="22" t="s">
+      <c r="O51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="25" t="s">
+      <c r="Q51" s="8"/>
+      <c r="R51" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S51" s="1" t="s">
@@ -3012,12 +3040,12 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="18"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="22"/>
       <c r="G52" s="2">
         <v>326</v>
       </c>
@@ -3031,21 +3059,21 @@
       <c r="K52" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="4">
         <v>37.4</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="1">
         <v>37.450000000000003</v>
       </c>
-      <c r="O52" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P52" s="22" t="s">
+      <c r="O52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="25" t="s">
+      <c r="Q52" s="8"/>
+      <c r="R52" s="3" t="s">
         <v>93</v>
       </c>
       <c r="S52" s="1" t="s">
@@ -3053,12 +3081,12 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="18"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="22"/>
       <c r="G53" s="2">
         <v>328</v>
       </c>
@@ -3072,21 +3100,21 @@
       <c r="K53" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="4">
         <v>9.4</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="1">
         <v>10.6</v>
       </c>
-      <c r="O53" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P53" s="22" t="s">
+      <c r="O53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="25" t="s">
+      <c r="Q53" s="8"/>
+      <c r="R53" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S53" s="1" t="s">
@@ -3094,12 +3122,12 @@
       </c>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="18"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="22"/>
       <c r="G54" s="2">
         <v>329</v>
       </c>
@@ -3113,21 +3141,21 @@
       <c r="K54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="L54" s="4" t="s">
         <v>0</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O54" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P54" s="22" t="s">
+      <c r="O54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="25" t="s">
+      <c r="Q54" s="8"/>
+      <c r="R54" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S54" s="1" t="s">
@@ -3135,12 +3163,12 @@
       </c>
     </row>
     <row r="55" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="18"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="22"/>
       <c r="G55" s="2">
         <v>330</v>
       </c>
@@ -3154,21 +3182,21 @@
       <c r="K55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="L55" s="4" t="s">
         <v>0</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O55" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P55" s="22" t="s">
+      <c r="O55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="25" t="s">
+      <c r="Q55" s="8"/>
+      <c r="R55" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S55" s="1" t="s">
@@ -3176,12 +3204,12 @@
       </c>
     </row>
     <row r="56" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="18"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="22"/>
       <c r="G56" s="2">
         <v>1000</v>
       </c>
@@ -3195,21 +3223,21 @@
       <c r="K56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L56" s="3" t="s">
+      <c r="L56" s="4" t="s">
         <v>0</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O56" s="25" t="s">
+      <c r="O56" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P56" s="22" t="s">
+      <c r="P56" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="25" t="s">
+      <c r="Q56" s="8"/>
+      <c r="R56" s="3" t="s">
         <v>127</v>
       </c>
       <c r="S56" s="1" t="s">
@@ -3217,40 +3245,40 @@
       </c>
     </row>
     <row r="57" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="20">
+      <c r="A57" s="17"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="9">
         <v>1020</v>
       </c>
-      <c r="H57" s="17" t="s">
+      <c r="H57" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="I57" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J57" s="20"/>
-      <c r="K57" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M57" s="9"/>
-      <c r="N57" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O57" s="25" t="s">
+      <c r="I57" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="9"/>
+      <c r="K57" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M57" s="13"/>
+      <c r="N57" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P57" s="22" t="s">
+      <c r="P57" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="25" t="s">
+      <c r="Q57" s="8"/>
+      <c r="R57" s="3" t="s">
         <v>130</v>
       </c>
       <c r="S57" s="1" t="s">
@@ -3258,28 +3286,28 @@
       </c>
     </row>
     <row r="58" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P58" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="25" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="3" t="s">
         <v>131</v>
       </c>
       <c r="S58" s="1" t="s">
@@ -3287,12 +3315,12 @@
       </c>
     </row>
     <row r="59" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="18"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="22"/>
       <c r="G59" s="2" t="s">
         <v>132</v>
       </c>
@@ -3306,7 +3334,7 @@
       <c r="K59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="L59" s="4" t="s">
         <v>0</v>
       </c>
       <c r="M59" s="5"/>
@@ -3328,12 +3356,12 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="18"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="22"/>
       <c r="G60" s="2" t="s">
         <v>134</v>
       </c>
@@ -3347,7 +3375,7 @@
       <c r="K60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L60" s="3" t="s">
+      <c r="L60" s="4" t="s">
         <v>0</v>
       </c>
       <c r="M60" s="5"/>
@@ -3369,12 +3397,12 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="19"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="10"/>
       <c r="G61" s="2" t="s">
         <v>136</v>
       </c>
@@ -3388,7 +3416,7 @@
       <c r="K61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L61" s="3" t="s">
+      <c r="L61" s="4" t="s">
         <v>0</v>
       </c>
       <c r="M61" s="5"/>
@@ -3411,88 +3439,42 @@
     </row>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:L3"/>
+    <mergeCell ref="M2:P3"/>
+    <mergeCell ref="Q2:S3"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G4:L5"/>
+    <mergeCell ref="M4:S5"/>
+    <mergeCell ref="A5:F6"/>
+    <mergeCell ref="G6:L7"/>
+    <mergeCell ref="M6:S7"/>
+    <mergeCell ref="A7:F8"/>
+    <mergeCell ref="G8:L9"/>
+    <mergeCell ref="M8:S9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A10:B12"/>
+    <mergeCell ref="C10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:S10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="P12:Q12"/>
     <mergeCell ref="A13:B61"/>
     <mergeCell ref="C13:E61"/>
     <mergeCell ref="F13:F61"/>
@@ -3517,42 +3499,88 @@
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="L23:M23"/>
-    <mergeCell ref="A10:B12"/>
-    <mergeCell ref="C10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:S10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:L3"/>
-    <mergeCell ref="M2:P3"/>
-    <mergeCell ref="Q2:S3"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G4:L5"/>
-    <mergeCell ref="M4:S5"/>
-    <mergeCell ref="A5:F6"/>
-    <mergeCell ref="G6:L7"/>
-    <mergeCell ref="M6:S7"/>
-    <mergeCell ref="A7:F8"/>
-    <mergeCell ref="G8:L9"/>
-    <mergeCell ref="M8:S9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="P56:Q56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
